--- a/jijin_project/src/main/resources/public/excel/新建 Excel 2007.xlsx
+++ b/jijin_project/src/main/resources/public/excel/新建 Excel 2007.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>基金code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,29 +84,47 @@
     <t>国泰纳斯达克100指数</t>
   </si>
   <si>
-    <t>苹果</t>
-  </si>
-  <si>
-    <t>微软</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAPL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>--</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017.12.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>微软</t>
+  </si>
+  <si>
+    <t>亚马逊</t>
+  </si>
+  <si>
+    <t>Faceb</t>
+  </si>
+  <si>
+    <t>谷歌-C</t>
+  </si>
+  <si>
+    <t>谷歌-A</t>
+  </si>
+  <si>
+    <t>英特尔</t>
+  </si>
+  <si>
+    <t>思科</t>
+  </si>
+  <si>
+    <t>康卡斯特</t>
+  </si>
+  <si>
+    <t>安进</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -156,16 +174,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -177,7 +264,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -454,16 +541,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -485,7 +573,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -500,15 +588,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3">
         <v>0.1096</v>
       </c>
     </row>
@@ -523,16 +608,174 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>8.3199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>160213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6.9599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>160213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>8.3199999999999996E-2</v>
+      <c r="G5" s="3">
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>160213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>160213</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>160213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>160213</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>160213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>160213</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.5599999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -549,7 +792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -562,7 +805,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jijin_project/src/main/resources/public/excel/新建 Excel 2007.xlsx
+++ b/jijin_project/src/main/resources/public/excel/新建 Excel 2007.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="76">
   <si>
     <t>基金code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,41 +81,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>上投摩根中国</t>
+  </si>
+  <si>
+    <t>腾讯控股</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+  </si>
+  <si>
+    <t>中国平安</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>吉利汽车</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>桐昆股份</t>
+  </si>
+  <si>
+    <t>2017.12.31</t>
+  </si>
+  <si>
+    <t>003243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>470888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富香港混</t>
+  </si>
+  <si>
+    <t>三生制药</t>
+  </si>
+  <si>
+    <t>BRILL</t>
+  </si>
+  <si>
+    <t>汇丰控股</t>
+  </si>
+  <si>
+    <t>旭辉控股集团</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>中国太保</t>
+  </si>
+  <si>
+    <t>中国光大国际</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>241001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永达汽车</t>
+  </si>
+  <si>
+    <t>瑞声科技</t>
+  </si>
+  <si>
+    <t>舜宇光学科技</t>
+  </si>
+  <si>
+    <t>中国建材</t>
+  </si>
+  <si>
+    <t>中国东方集团</t>
+  </si>
+  <si>
+    <t>正通汽车</t>
+  </si>
+  <si>
+    <t>龙光地产</t>
+  </si>
+  <si>
+    <t>BRILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝海外中国成长混合</t>
+  </si>
+  <si>
+    <t>中国移动</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>艾涛巴西联</t>
+  </si>
+  <si>
+    <t>印孚瑟斯技</t>
+  </si>
+  <si>
+    <t>Ambev</t>
+  </si>
+  <si>
+    <t>南方金砖四国指数</t>
+  </si>
+  <si>
+    <t>160121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙牛乳业</t>
+  </si>
+  <si>
+    <t>石药集团</t>
+  </si>
+  <si>
+    <t>中芯国际</t>
+  </si>
+  <si>
+    <t>金风科技</t>
+  </si>
+  <si>
+    <t>中国建筑国际</t>
+  </si>
+  <si>
+    <t>378006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上投摩根全球新兴市场混合</t>
+  </si>
+  <si>
+    <t>宇华教育</t>
+  </si>
+  <si>
+    <t>和谐汽车</t>
+  </si>
+  <si>
+    <t>中信银行</t>
+  </si>
+  <si>
+    <t>中国国航</t>
+  </si>
+  <si>
+    <t>丘钛科技</t>
+  </si>
+  <si>
+    <t>中国财险</t>
+  </si>
+  <si>
+    <t>中国太平</t>
+  </si>
+  <si>
+    <t>工银香港中小盘人民币</t>
+  </si>
+  <si>
+    <t>002379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160213</t>
+  </si>
+  <si>
     <t>国泰纳斯达克100指数</t>
   </si>
   <si>
-    <t>2017.12.31</t>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>微软</t>
+  </si>
+  <si>
+    <t>亚马逊</t>
+  </si>
+  <si>
+    <t>Faceb</t>
+  </si>
+  <si>
+    <t>谷歌-C</t>
+  </si>
+  <si>
+    <t>谷歌-A</t>
+  </si>
+  <si>
+    <t>英特尔</t>
+  </si>
+  <si>
+    <t>思科</t>
+  </si>
+  <si>
+    <t>康卡斯特</t>
+  </si>
+  <si>
+    <t>安进</t>
+  </si>
+  <si>
+    <t>工银香港中小盘人民币</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果</t>
-  </si>
-  <si>
-    <t>微软</t>
-  </si>
-  <si>
-    <t>亚马逊</t>
-  </si>
-  <si>
-    <t>Faceb</t>
-  </si>
-  <si>
-    <t>谷歌-C</t>
-  </si>
-  <si>
-    <t>谷歌-A</t>
-  </si>
-  <si>
-    <t>英特尔</t>
-  </si>
-  <si>
-    <t>思科</t>
-  </si>
-  <si>
-    <t>康卡斯特</t>
-  </si>
-  <si>
-    <t>安进</t>
   </si>
 </sst>
 </file>
@@ -176,8 +354,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -185,74 +363,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -264,7 +374,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -541,21 +651,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -578,203 +690,1382 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
-        <v>160213</v>
+      <c r="A2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="3">
-        <v>0.1096</v>
+        <v>8.6900000000000005E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
-        <v>160213</v>
+      <c r="A3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3">
-        <v>8.3199999999999996E-2</v>
+        <v>8.5900000000000004E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
-        <v>160213</v>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3">
-        <v>6.9599999999999995E-2</v>
+        <v>8.4199999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
-        <v>160213</v>
+      <c r="A5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3">
-        <v>5.2900000000000003E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
-        <v>160213</v>
+      <c r="A6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>7.8100000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
-        <v>160213</v>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3">
-        <v>3.8800000000000001E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
-        <v>160213</v>
+      <c r="A8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3">
-        <v>2.5899999999999999E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9">
-        <v>160213</v>
+      <c r="A9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3">
-        <v>2.3199999999999998E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
-        <v>160213</v>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="3">
-        <v>2.2800000000000001E-2</v>
+        <v>3.39E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11">
-        <v>160213</v>
+      <c r="A11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9.2899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3">
+        <v>7.1599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5.21E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5.16E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4.8399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4.65E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4.41E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5.8400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5.2699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="3">
+        <v>4.7199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4.1799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4.1300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3.7900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.1409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="3">
+        <v>7.3499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="3">
+        <v>5.7700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3.4099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2.92E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="3">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2.5700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7.9600000000000004E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6.59E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5.3499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4.8599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4.7300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4.1099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3.8600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3.09E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="3">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="3">
+        <v>9.8299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8.5800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="3">
+        <v>7.0800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="3">
+        <v>6.54E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="3">
+        <v>6.4199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" s="3">
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4.6300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3.6900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61">
         <v>0</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.1096</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" s="3">
+        <v>8.3199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="3">
+        <v>6.9599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="3">
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" s="3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="3">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="3">
+        <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" s="3">
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
@@ -792,7 +2083,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -805,7 +2096,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jijin_project/src/main/resources/public/excel/新建 Excel 2007.xlsx
+++ b/jijin_project/src/main/resources/public/excel/新建 Excel 2007.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="134">
   <si>
     <t>基金code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,203 +96,475 @@
     <t>中国平安</t>
   </si>
   <si>
+    <t>吉利汽车</t>
+  </si>
+  <si>
+    <t>2017.12.31</t>
+  </si>
+  <si>
+    <t>003243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>470888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富香港混</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>241001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝海外中国成长混合</t>
+  </si>
+  <si>
+    <t>南方金砖四国指数</t>
+  </si>
+  <si>
+    <t>160121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>378006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上投摩根全球新兴市场混合</t>
+  </si>
+  <si>
+    <t>中信银行</t>
+  </si>
+  <si>
+    <t>工银香港中小盘人民币</t>
+  </si>
+  <si>
+    <t>002379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160213</t>
+  </si>
+  <si>
+    <t>国泰纳斯达克100指数</t>
+  </si>
+  <si>
+    <t>谷歌-C</t>
+  </si>
+  <si>
+    <t>谷歌-A</t>
+  </si>
+  <si>
+    <t>英特尔</t>
+  </si>
+  <si>
+    <t>康卡斯特</t>
+  </si>
+  <si>
+    <t>安进</t>
+  </si>
+  <si>
+    <t>工银香港中小盘人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯控股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601398</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BABA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国平安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吉利汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>格力电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000651</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>隆基股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贵州茅台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桐昆股份</t>
-  </si>
-  <si>
-    <t>2017.12.31</t>
-  </si>
-  <si>
-    <t>003243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>470888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富香港混</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>三生制药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BRILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>汇丰控股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>旭辉控股集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601939</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国太保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国光大国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>农业银行</t>
-  </si>
-  <si>
-    <t>241001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601288</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>永达汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03669</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>瑞声科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>舜宇光学科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02382</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国建材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国东方集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正通汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>龙光地产</t>
-  </si>
-  <si>
-    <t>BRILL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝海外中国成长混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00941</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>艾涛巴西联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>印孚瑟斯技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INFY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ambev</t>
-  </si>
-  <si>
-    <t>南方金砖四国指数</t>
-  </si>
-  <si>
-    <t>160121</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蒙牛乳业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>石药集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中芯国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金风科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国建筑国际</t>
-  </si>
-  <si>
-    <t>378006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上投摩根全球新兴市场混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宇华教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>和谐汽车</t>
-  </si>
-  <si>
-    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03836</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国国航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>丘钛科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国财险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国太平</t>
-  </si>
-  <si>
-    <t>工银香港中小盘人民币</t>
-  </si>
-  <si>
-    <t>002379</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>160213</t>
-  </si>
-  <si>
-    <t>国泰纳斯达克100指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00966</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAPL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>亚马逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Faceb</t>
-  </si>
-  <si>
-    <t>谷歌-C</t>
-  </si>
-  <si>
-    <t>谷歌-A</t>
-  </si>
-  <si>
-    <t>英特尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMZN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOOGL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>思科</t>
-  </si>
-  <si>
-    <t>康卡斯特</t>
-  </si>
-  <si>
-    <t>安进</t>
-  </si>
-  <si>
-    <t>工银香港中小盘人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMCSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMGN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,6 +635,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -374,7 +714,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -653,17 +993,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="25.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -679,7 +1020,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -691,7 +1032,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -700,10 +1041,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3">
         <v>8.6900000000000005E-2</v>
@@ -711,7 +1055,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -720,10 +1064,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3">
         <v>8.5900000000000004E-2</v>
@@ -731,7 +1078,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -740,10 +1087,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3">
         <v>8.4199999999999997E-2</v>
@@ -751,7 +1101,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -760,10 +1110,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G5" s="3">
         <v>8.3299999999999999E-2</v>
@@ -771,7 +1124,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -780,10 +1133,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3">
         <v>7.8100000000000003E-2</v>
@@ -791,7 +1147,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -800,10 +1156,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G7" s="3">
         <v>6.6100000000000006E-2</v>
@@ -811,7 +1170,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -820,10 +1179,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G8" s="3">
         <v>6.2399999999999997E-2</v>
@@ -831,7 +1193,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -840,10 +1202,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3">
         <v>4.3700000000000003E-2</v>
@@ -851,7 +1216,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -860,10 +1225,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3">
         <v>3.39E-2</v>
@@ -871,7 +1239,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -880,10 +1248,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="G11" s="3">
         <v>3.1800000000000002E-2</v>
@@ -891,16 +1262,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -911,16 +1285,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -931,19 +1308,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G14" s="3">
         <v>5.3999999999999999E-2</v>
@@ -951,19 +1331,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="G15" s="3">
         <v>5.21E-2</v>
@@ -971,19 +1354,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G16" s="3">
         <v>5.16E-2</v>
@@ -991,19 +1377,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G17" s="3">
         <v>4.8399999999999999E-2</v>
@@ -1011,19 +1400,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="G18" s="3">
         <v>4.65E-2</v>
@@ -1031,19 +1423,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="G19" s="3">
         <v>4.41E-2</v>
@@ -1051,19 +1446,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="G20" s="3">
         <v>4.2599999999999999E-2</v>
@@ -1071,19 +1469,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G21" s="3">
         <v>4.2500000000000003E-2</v>
@@ -1091,19 +1492,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="3">
         <v>0.06</v>
@@ -1111,19 +1515,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G23" s="3">
         <v>5.8400000000000001E-2</v>
@@ -1131,19 +1538,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G24" s="3">
         <v>5.2699999999999997E-2</v>
@@ -1151,19 +1561,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="G25" s="3">
         <v>4.7199999999999999E-2</v>
@@ -1171,19 +1584,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="G26" s="3">
         <v>4.1799999999999997E-2</v>
@@ -1191,19 +1607,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="G27" s="3">
         <v>4.1300000000000003E-2</v>
@@ -1211,19 +1630,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G28" s="3">
         <v>3.7900000000000003E-2</v>
@@ -1231,16 +1653,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -1251,19 +1676,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="G30" s="3">
         <v>2.5399999999999999E-2</v>
@@ -1271,19 +1699,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G31" s="3">
         <v>2.1899999999999999E-2</v>
@@ -1291,16 +1722,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>8</v>
@@ -1311,19 +1745,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G33" s="3">
         <v>7.3499999999999996E-2</v>
@@ -1331,16 +1768,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1351,19 +1791,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="G35" s="3">
         <v>4.6800000000000001E-2</v>
@@ -1371,19 +1814,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="G36" s="3">
         <v>3.4099999999999998E-2</v>
@@ -1391,19 +1837,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G37" s="3">
         <v>3.1E-2</v>
@@ -1411,19 +1860,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="G38" s="3">
         <v>2.92E-2</v>
@@ -1431,19 +1883,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G39" s="3">
         <v>2.5899999999999999E-2</v>
@@ -1451,16 +1906,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -1471,16 +1929,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -1491,16 +1952,19 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -1511,16 +1975,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1531,19 +1998,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G44" s="3">
         <v>4.8599999999999997E-2</v>
@@ -1551,19 +2021,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G45" s="3">
         <v>4.7300000000000002E-2</v>
@@ -1571,19 +2044,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="G46" s="3">
         <v>4.1099999999999998E-2</v>
@@ -1591,19 +2067,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G47" s="3">
         <v>3.8600000000000002E-2</v>
@@ -1611,19 +2090,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F48" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="G48" s="3">
         <v>3.3000000000000002E-2</v>
@@ -1631,19 +2113,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="G49" s="3">
         <v>3.09E-2</v>
@@ -1651,19 +2136,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="G50" s="3">
         <v>3.0300000000000001E-2</v>
@@ -1671,19 +2159,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="G51" s="3">
         <v>9.8299999999999998E-2</v>
@@ -1691,19 +2182,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="G52" s="3">
         <v>8.5800000000000001E-2</v>
@@ -1711,16 +2205,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -1731,19 +2228,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="G54" s="3">
         <v>6.54E-2</v>
@@ -1751,19 +2251,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G55" s="3">
         <v>6.4199999999999993E-2</v>
@@ -1771,19 +2274,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="G56" s="3">
         <v>5.0599999999999999E-2</v>
@@ -1791,19 +2297,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="G57" s="3">
         <v>4.9599999999999998E-2</v>
@@ -1811,19 +2320,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="G58" s="3">
         <v>4.6300000000000001E-2</v>
@@ -1831,19 +2343,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="G59" s="3">
         <v>3.6900000000000002E-2</v>
@@ -1851,19 +2366,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="G60" s="3">
         <v>2.7400000000000001E-2</v>
@@ -1871,19 +2389,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="G61" s="3">
         <v>0.1096</v>
@@ -1891,19 +2412,22 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="G62" s="3">
         <v>8.3199999999999996E-2</v>
@@ -1911,19 +2435,22 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="G63" s="3">
         <v>6.9599999999999995E-2</v>
@@ -1931,19 +2458,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="G64" s="3">
         <v>5.2900000000000003E-2</v>
@@ -1951,19 +2481,22 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G65" s="3">
         <v>4.4999999999999998E-2</v>
@@ -1971,19 +2504,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G66" s="3">
         <v>3.8800000000000001E-2</v>
@@ -1991,19 +2527,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G67" s="3">
         <v>2.5899999999999999E-2</v>
@@ -2011,19 +2550,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="G68" s="3">
         <v>2.3199999999999998E-2</v>
@@ -2031,19 +2573,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="G69" s="3">
         <v>2.2800000000000001E-2</v>
@@ -2051,19 +2596,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G70" s="3">
         <v>1.5599999999999999E-2</v>
@@ -2083,7 +2631,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2096,7 +2644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jijin_project/src/main/resources/public/excel/新建 Excel 2007.xlsx
+++ b/jijin_project/src/main/resources/public/excel/新建 Excel 2007.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="145">
   <si>
     <t>基金code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,40 @@
   </si>
   <si>
     <t>AMGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001691</t>
+  </si>
+  <si>
+    <t>南方香港成长</t>
+  </si>
+  <si>
+    <t>瑞声科技</t>
+  </si>
+  <si>
+    <t>比亚迪股份</t>
+  </si>
+  <si>
+    <t>洛阳钼业</t>
+  </si>
+  <si>
+    <t>石药集团</t>
+  </si>
+  <si>
+    <t>碧桂园</t>
+  </si>
+  <si>
+    <t>中国人民保</t>
+  </si>
+  <si>
+    <t>舜宇光学科技</t>
+  </si>
+  <si>
+    <t>长飞光纤光缆</t>
+  </si>
+  <si>
+    <t>吉利汽车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2615,6 +2649,206 @@
       </c>
       <c r="G70" s="3">
         <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>144</v>
+      </c>
+      <c r="G71" s="3">
+        <v>8.4900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3">
+        <v>7.3300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>136</v>
+      </c>
+      <c r="G73" s="3">
+        <v>6.7100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>137</v>
+      </c>
+      <c r="G74" s="3">
+        <v>6.1499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" s="3">
+        <v>4.8399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>139</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="3">
+        <v>4.4900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>141</v>
+      </c>
+      <c r="G78" s="3">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>142</v>
+      </c>
+      <c r="G79" s="3">
+        <v>3.6700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G80" s="3">
+        <v>2.1600000000000001E-2</v>
       </c>
     </row>
   </sheetData>
